--- a/output/蛋卷/01_李淑云_trade_list.xlsx
+++ b/output/蛋卷/01_李淑云_trade_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="221">
   <si>
     <t>order_id</t>
   </si>
@@ -37,39 +37,39 @@
     <t>action</t>
   </si>
   <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>status_desc</t>
+  </si>
+  <si>
+    <t>action_desc</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>value_desc</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
     <t>percent</t>
   </si>
   <si>
+    <t>volume</t>
+  </si>
+  <si>
     <t>target_code</t>
   </si>
   <si>
     <t>target_name</t>
   </si>
   <si>
-    <t>status_desc</t>
-  </si>
-  <si>
-    <t>action_desc</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>convert</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>value_desc</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -358,6 +358,21 @@
     <t>5347997940056562873</t>
   </si>
   <si>
+    <t>5509615253276040945</t>
+  </si>
+  <si>
+    <t>5677235594772081961</t>
+  </si>
+  <si>
+    <t>5834392506876810982</t>
+  </si>
+  <si>
+    <t>5858615225583371048</t>
+  </si>
+  <si>
+    <t>5996264452601134823</t>
+  </si>
+  <si>
     <t>CSI666</t>
   </si>
   <si>
@@ -659,6 +674,9 @@
   </si>
   <si>
     <t>130.07份</t>
+  </si>
+  <si>
+    <t>16.5份</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,40 +1114,40 @@
         <v>194897199</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>227.16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43552.90820601852</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="2">
-        <v>43552.90820601852</v>
-      </c>
-      <c r="O2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>227.16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1143,40 +1161,40 @@
         <v>194897199</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I3">
+        <v>143.92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43557.4737037037</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="2">
-        <v>43557.4737037037</v>
-      </c>
-      <c r="O3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>143.92</v>
-      </c>
-      <c r="R3" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1190,40 +1208,40 @@
         <v>194897199</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43560.79615740741</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="2">
-        <v>43560.79615740741</v>
-      </c>
-      <c r="O4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>200</v>
-      </c>
-      <c r="R4" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1237,40 +1255,40 @@
         <v>194897199</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I5">
+        <v>105.72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43564.37784722223</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="2">
-        <v>43564.37784722223</v>
-      </c>
-      <c r="O5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>105.72</v>
-      </c>
-      <c r="R5" t="s">
-        <v>139</v>
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1284,40 +1302,40 @@
         <v>194897199</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>142.64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43571.37079861111</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="2">
-        <v>43571.37079861111</v>
-      </c>
-      <c r="O6" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>142.64</v>
-      </c>
-      <c r="R6" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1331,40 +1349,40 @@
         <v>194897199</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I7">
+        <v>143.08</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43578.37986111111</v>
       </c>
       <c r="M7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N7" s="2">
-        <v>43578.37986111111</v>
-      </c>
-      <c r="O7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>143.08</v>
-      </c>
-      <c r="R7" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1378,40 +1396,40 @@
         <v>194897199</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <v>222.7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43585.38101851852</v>
       </c>
       <c r="M8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8" s="2">
-        <v>43585.38101851852</v>
-      </c>
-      <c r="O8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>222.7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>142</v>
+        <v>123</v>
+      </c>
+      <c r="N8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1425,40 +1443,40 @@
         <v>194897199</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I9">
+        <v>245.12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43592.37100694444</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2">
-        <v>43592.37100694444</v>
-      </c>
-      <c r="O9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>245.12</v>
-      </c>
-      <c r="R9" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1472,33 +1490,33 @@
         <v>194897199</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="2">
+        <v>43599.32777777778</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N10" s="2">
-        <v>43599.32777777778</v>
-      </c>
-      <c r="O10" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" t="b">
+        <v>123</v>
+      </c>
+      <c r="O10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1513,40 +1531,40 @@
         <v>194897199</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>245.48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43599.37572916667</v>
       </c>
       <c r="M11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="2">
-        <v>43599.37572916667</v>
-      </c>
-      <c r="O11" t="s">
-        <v>118</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>245.48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>144</v>
+        <v>123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1560,40 +1578,40 @@
         <v>194897199</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="2">
+        <v>43599.8405787037</v>
+      </c>
+      <c r="M12" t="s">
         <v>124</v>
       </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" s="2">
-        <v>43599.8405787037</v>
-      </c>
-      <c r="O12" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
-      </c>
-      <c r="R12" t="s">
-        <v>145</v>
+      <c r="N12" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1607,40 +1625,40 @@
         <v>194897199</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I13">
+        <v>256.42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="2">
+        <v>43606.36447916667</v>
       </c>
       <c r="M13" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" s="2">
-        <v>43606.36447916667</v>
-      </c>
-      <c r="O13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>256.42</v>
-      </c>
-      <c r="R13" t="s">
-        <v>146</v>
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1654,40 +1672,40 @@
         <v>194897199</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I14">
+        <v>213.4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43606.36554398148</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2">
-        <v>43606.36554398148</v>
-      </c>
-      <c r="O14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>213.4</v>
-      </c>
-      <c r="R14" t="s">
-        <v>147</v>
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1701,43 +1719,43 @@
         <v>194897199</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>129</v>
+        <v>2.7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43608.52224537037</v>
       </c>
       <c r="M15" t="s">
-        <v>132</v>
-      </c>
-      <c r="N15" s="2">
-        <v>43608.52224537037</v>
-      </c>
-      <c r="O15" t="s">
-        <v>118</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2.7</v>
-      </c>
-      <c r="R15" t="s">
-        <v>148</v>
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1751,43 +1769,43 @@
         <v>194897199</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I16">
+        <v>251.76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="2">
+        <v>43613.37202546297</v>
       </c>
       <c r="M16" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="2">
-        <v>43613.37202546297</v>
-      </c>
-      <c r="O16" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>251.76</v>
-      </c>
-      <c r="R16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1798,43 +1816,43 @@
         <v>194897199</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>249.76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="2">
+        <v>43620.37474537037</v>
       </c>
       <c r="M17" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17" s="2">
-        <v>43620.37474537037</v>
-      </c>
-      <c r="O17" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>249.76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1845,43 +1863,43 @@
         <v>194897199</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>254.84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43627.37545138889</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="2">
-        <v>43627.37545138889</v>
-      </c>
-      <c r="O18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>254.84</v>
-      </c>
-      <c r="R18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1892,43 +1910,43 @@
         <v>194897199</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I19">
+        <v>253.72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="2">
+        <v>43634.42155092592</v>
       </c>
       <c r="M19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" s="2">
-        <v>43634.42155092592</v>
-      </c>
-      <c r="O19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>253.72</v>
-      </c>
-      <c r="R19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1939,46 +1957,46 @@
         <v>194897199</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="2">
+        <v>43636.48306712963</v>
+      </c>
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>30.02</v>
       </c>
-      <c r="L20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" t="s">
-        <v>132</v>
-      </c>
-      <c r="N20" s="2">
-        <v>43636.48306712963</v>
-      </c>
-      <c r="O20" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>153</v>
-      </c>
-      <c r="S20">
+      <c r="Q20">
         <v>30.02</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1989,43 +2007,43 @@
         <v>194897199</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>241.2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="2">
+        <v>43641.53574074074</v>
       </c>
       <c r="M21" t="s">
-        <v>130</v>
-      </c>
-      <c r="N21" s="2">
-        <v>43641.53574074074</v>
-      </c>
-      <c r="O21" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>241.2</v>
-      </c>
-      <c r="R21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2036,43 +2054,43 @@
         <v>194897199</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I22">
+        <v>231.16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="2">
+        <v>43648.37302083334</v>
       </c>
       <c r="M22" t="s">
-        <v>130</v>
-      </c>
-      <c r="N22" s="2">
-        <v>43648.37302083334</v>
-      </c>
-      <c r="O22" t="s">
-        <v>118</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>231.16</v>
-      </c>
-      <c r="R22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2083,43 +2101,43 @@
         <v>194897199</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I23">
+        <v>240.5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="2">
+        <v>43655.37835648148</v>
       </c>
       <c r="M23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="2">
-        <v>43655.37835648148</v>
-      </c>
-      <c r="O23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>240.5</v>
-      </c>
-      <c r="R23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2130,43 +2148,43 @@
         <v>194897199</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>235.52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43662.37456018518</v>
       </c>
       <c r="M24" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" s="2">
-        <v>43662.37456018518</v>
-      </c>
-      <c r="O24" t="s">
-        <v>118</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>235.52</v>
-      </c>
-      <c r="R24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N24" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2177,43 +2195,43 @@
         <v>194897199</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I25">
+        <v>240.92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="2">
+        <v>43669.36444444444</v>
       </c>
       <c r="M25" t="s">
-        <v>130</v>
-      </c>
-      <c r="N25" s="2">
-        <v>43669.36444444444</v>
-      </c>
-      <c r="O25" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>240.92</v>
-      </c>
-      <c r="R25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2224,43 +2242,43 @@
         <v>194897199</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>254.44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="2">
+        <v>43683.38193287037</v>
       </c>
       <c r="M26" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" s="2">
-        <v>43683.38193287037</v>
-      </c>
-      <c r="O26" t="s">
-        <v>118</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>254.44</v>
-      </c>
-      <c r="R26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2271,43 +2289,43 @@
         <v>194897199</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <v>259.94</v>
+      </c>
+      <c r="J27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="2">
+        <v>43690.45435185185</v>
       </c>
       <c r="M27" t="s">
-        <v>130</v>
-      </c>
-      <c r="N27" s="2">
-        <v>43690.45435185185</v>
-      </c>
-      <c r="O27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>259.94</v>
-      </c>
-      <c r="R27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2318,43 +2336,43 @@
         <v>194897199</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I28">
+        <v>249.08</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="2">
+        <v>43697.37862268519</v>
       </c>
       <c r="M28" t="s">
-        <v>130</v>
-      </c>
-      <c r="N28" s="2">
-        <v>43697.37862268519</v>
-      </c>
-      <c r="O28" t="s">
-        <v>118</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>249.08</v>
-      </c>
-      <c r="R28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2365,43 +2383,43 @@
         <v>194897199</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I29">
+        <v>263.82</v>
+      </c>
+      <c r="J29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="2">
+        <v>43704.44508101852</v>
       </c>
       <c r="M29" t="s">
-        <v>130</v>
-      </c>
-      <c r="N29" s="2">
-        <v>43704.44508101852</v>
-      </c>
-      <c r="O29" t="s">
-        <v>118</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>263.82</v>
-      </c>
-      <c r="R29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N29" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2412,46 +2430,46 @@
         <v>194897199</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30">
+        <v>132</v>
+      </c>
+      <c r="J30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="2">
+        <v>43704.52278935185</v>
+      </c>
+      <c r="M30" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>1.74</v>
       </c>
-      <c r="L30" t="s">
-        <v>129</v>
-      </c>
-      <c r="M30" t="s">
-        <v>132</v>
-      </c>
-      <c r="N30" s="2">
-        <v>43704.52278935185</v>
-      </c>
-      <c r="O30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>163</v>
-      </c>
-      <c r="S30">
+      <c r="Q30">
         <v>1.74</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2462,43 +2480,43 @@
         <v>194897199</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I31">
+        <v>248.14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="2">
+        <v>43711.37229166667</v>
       </c>
       <c r="M31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" s="2">
-        <v>43711.37229166667</v>
-      </c>
-      <c r="O31" t="s">
-        <v>118</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>248.14</v>
-      </c>
-      <c r="R31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N31" t="s">
+        <v>169</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2509,43 +2527,43 @@
         <v>194897199</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I32">
+        <v>234.74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="2">
+        <v>43718.38020833334</v>
       </c>
       <c r="M32" t="s">
-        <v>130</v>
-      </c>
-      <c r="N32" s="2">
-        <v>43718.38020833334</v>
-      </c>
-      <c r="O32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>234.74</v>
-      </c>
-      <c r="R32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N32" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2556,43 +2574,43 @@
         <v>194897199</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I33">
+        <v>235.1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="2">
+        <v>43725.36914351852</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" s="2">
-        <v>43725.36914351852</v>
-      </c>
-      <c r="O33" t="s">
-        <v>118</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>235.1</v>
-      </c>
-      <c r="R33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2603,43 +2621,43 @@
         <v>194897199</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
-      </c>
-      <c r="L34" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I34">
+        <v>242.14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="2">
+        <v>43732.38857638889</v>
       </c>
       <c r="M34" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" s="2">
-        <v>43732.38857638889</v>
-      </c>
-      <c r="O34" t="s">
-        <v>118</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>242.14</v>
-      </c>
-      <c r="R34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N34" t="s">
+        <v>172</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2650,46 +2668,46 @@
         <v>194897199</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35">
+        <v>132</v>
+      </c>
+      <c r="J35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="2">
+        <v>43733.60827546296</v>
+      </c>
+      <c r="M35" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>95.95</v>
       </c>
-      <c r="L35" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" t="s">
-        <v>132</v>
-      </c>
-      <c r="N35" s="2">
-        <v>43733.60827546296</v>
-      </c>
-      <c r="O35" t="s">
-        <v>118</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>168</v>
-      </c>
-      <c r="S35">
+      <c r="Q35">
         <v>95.95</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2700,43 +2718,43 @@
         <v>194897199</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
-      </c>
-      <c r="L36" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I36">
+        <v>251.98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" s="2">
+        <v>43746.40619212963</v>
       </c>
       <c r="M36" t="s">
-        <v>130</v>
-      </c>
-      <c r="N36" s="2">
-        <v>43746.40619212963</v>
-      </c>
-      <c r="O36" t="s">
-        <v>118</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>251.98</v>
-      </c>
-      <c r="R36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N36" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2747,43 +2765,43 @@
         <v>194897199</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I37">
+        <v>233.18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="2">
+        <v>43753.38707175926</v>
       </c>
       <c r="M37" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" s="2">
-        <v>43753.38707175926</v>
-      </c>
-      <c r="O37" t="s">
-        <v>118</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>233.18</v>
-      </c>
-      <c r="R37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N37" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2794,43 +2812,43 @@
         <v>194897199</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>125</v>
-      </c>
-      <c r="L38" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I38">
+        <v>239.74</v>
+      </c>
+      <c r="J38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="2">
+        <v>43760.40981481481</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" s="2">
-        <v>43760.40981481481</v>
-      </c>
-      <c r="O38" t="s">
-        <v>118</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>239.74</v>
-      </c>
-      <c r="R38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N38" t="s">
+        <v>176</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2841,43 +2859,43 @@
         <v>194897199</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H39" t="s">
-        <v>125</v>
-      </c>
-      <c r="L39" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I39">
+        <v>234.68</v>
+      </c>
+      <c r="J39" t="s">
+        <v>134</v>
+      </c>
+      <c r="K39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="2">
+        <v>43767.4074537037</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
-      </c>
-      <c r="N39" s="2">
-        <v>43767.4074537037</v>
-      </c>
-      <c r="O39" t="s">
-        <v>118</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>234.68</v>
-      </c>
-      <c r="R39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N39" t="s">
+        <v>177</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2888,43 +2906,43 @@
         <v>194897199</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I40">
+        <v>235.1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="2">
+        <v>43774.38185185185</v>
       </c>
       <c r="M40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N40" s="2">
-        <v>43774.38185185185</v>
-      </c>
-      <c r="O40" t="s">
-        <v>118</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>235.1</v>
-      </c>
-      <c r="R40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N40" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2935,43 +2953,43 @@
         <v>194897199</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
-      </c>
-      <c r="L41" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I41">
+        <v>244.32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="2">
+        <v>43781.41143518518</v>
       </c>
       <c r="M41" t="s">
-        <v>130</v>
-      </c>
-      <c r="N41" s="2">
-        <v>43781.41143518518</v>
-      </c>
-      <c r="O41" t="s">
-        <v>118</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>244.32</v>
-      </c>
-      <c r="R41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N41" t="s">
+        <v>178</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2982,43 +3000,43 @@
         <v>194897199</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H42" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I42">
+        <v>244.46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" s="2">
+        <v>43788.38280092592</v>
       </c>
       <c r="M42" t="s">
-        <v>130</v>
-      </c>
-      <c r="N42" s="2">
-        <v>43788.38280092592</v>
-      </c>
-      <c r="O42" t="s">
-        <v>118</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>244.46</v>
-      </c>
-      <c r="R42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N42" t="s">
+        <v>179</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3029,43 +3047,43 @@
         <v>194897199</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H43" t="s">
-        <v>125</v>
-      </c>
-      <c r="L43" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I43">
+        <v>240.86</v>
+      </c>
+      <c r="J43" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="2">
+        <v>43795.38505787037</v>
       </c>
       <c r="M43" t="s">
-        <v>130</v>
-      </c>
-      <c r="N43" s="2">
-        <v>43795.38505787037</v>
-      </c>
-      <c r="O43" t="s">
-        <v>118</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>240.86</v>
-      </c>
-      <c r="R43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N43" t="s">
+        <v>180</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3076,43 +3094,43 @@
         <v>194897199</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H44" t="s">
-        <v>125</v>
-      </c>
-      <c r="L44" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I44">
+        <v>244.58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="2">
+        <v>43802.37565972222</v>
       </c>
       <c r="M44" t="s">
-        <v>130</v>
-      </c>
-      <c r="N44" s="2">
-        <v>43802.37565972222</v>
-      </c>
-      <c r="O44" t="s">
-        <v>118</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>244.58</v>
-      </c>
-      <c r="R44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N44" t="s">
+        <v>181</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3123,46 +3141,46 @@
         <v>194897199</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" s="2">
+        <v>43808.52238425926</v>
+      </c>
+      <c r="M45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" t="s">
+        <v>182</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>1.56</v>
       </c>
-      <c r="L45" t="s">
-        <v>129</v>
-      </c>
-      <c r="M45" t="s">
-        <v>132</v>
-      </c>
-      <c r="N45" s="2">
-        <v>43808.52238425926</v>
-      </c>
-      <c r="O45" t="s">
-        <v>118</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>177</v>
-      </c>
-      <c r="S45">
+      <c r="Q45">
         <v>1.56</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3173,43 +3191,43 @@
         <v>194897199</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
-      </c>
-      <c r="L46" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I46">
+        <v>243.84</v>
+      </c>
+      <c r="J46" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="2">
+        <v>43809.38309027778</v>
       </c>
       <c r="M46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N46" s="2">
-        <v>43809.38309027778</v>
-      </c>
-      <c r="O46" t="s">
-        <v>118</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>243.84</v>
-      </c>
-      <c r="R46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="N46" t="s">
+        <v>183</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3220,43 +3238,43 @@
         <v>194897199</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47">
+        <v>3000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K47" t="s">
+        <v>135</v>
+      </c>
+      <c r="L47" s="2">
+        <v>43813.80858796297</v>
+      </c>
+      <c r="M47" t="s">
         <v>125</v>
       </c>
-      <c r="L47" t="s">
-        <v>129</v>
-      </c>
-      <c r="M47" t="s">
-        <v>130</v>
-      </c>
-      <c r="N47" s="2">
-        <v>43813.80858796297</v>
-      </c>
-      <c r="O47" t="s">
-        <v>120</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>3000</v>
-      </c>
-      <c r="R47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="N47" t="s">
+        <v>184</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3267,43 +3285,43 @@
         <v>194897199</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
-      </c>
-      <c r="L48" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I48">
+        <v>203.86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>134</v>
+      </c>
+      <c r="K48" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" s="2">
+        <v>43816.38535879629</v>
       </c>
       <c r="M48" t="s">
-        <v>130</v>
-      </c>
-      <c r="N48" s="2">
-        <v>43816.38535879629</v>
-      </c>
-      <c r="O48" t="s">
-        <v>118</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>203.86</v>
-      </c>
-      <c r="R48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N48" t="s">
+        <v>185</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3314,43 +3332,43 @@
         <v>194897199</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
-      </c>
-      <c r="L49" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I49">
+        <v>203.92</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K49" t="s">
+        <v>135</v>
+      </c>
+      <c r="L49" s="2">
+        <v>43823.44496527778</v>
       </c>
       <c r="M49" t="s">
-        <v>130</v>
-      </c>
-      <c r="N49" s="2">
-        <v>43823.44496527778</v>
-      </c>
-      <c r="O49" t="s">
-        <v>118</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>203.92</v>
-      </c>
-      <c r="R49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N49" t="s">
+        <v>186</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3361,43 +3379,43 @@
         <v>194897199</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H50" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I50">
+        <v>203.92</v>
+      </c>
+      <c r="J50" t="s">
+        <v>134</v>
+      </c>
+      <c r="K50" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50" s="2">
+        <v>43830.34587962963</v>
       </c>
       <c r="M50" t="s">
-        <v>130</v>
-      </c>
-      <c r="N50" s="2">
-        <v>43830.34587962963</v>
-      </c>
-      <c r="O50" t="s">
-        <v>118</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>203.92</v>
-      </c>
-      <c r="R50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N50" t="s">
+        <v>186</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3408,40 +3426,40 @@
         <v>194897199</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51">
+        <v>131</v>
+      </c>
+      <c r="J51" t="s">
+        <v>134</v>
+      </c>
+      <c r="K51" t="s">
+        <v>136</v>
+      </c>
+      <c r="L51" s="2">
+        <v>43835.60075231481</v>
+      </c>
+      <c r="M51" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>40</v>
       </c>
-      <c r="L51" t="s">
-        <v>129</v>
-      </c>
-      <c r="M51" t="s">
-        <v>131</v>
-      </c>
-      <c r="N51" s="2">
-        <v>43835.60075231481</v>
-      </c>
-      <c r="O51" t="s">
-        <v>120</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3452,43 +3470,43 @@
         <v>194897199</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H52" t="s">
-        <v>125</v>
-      </c>
-      <c r="L52" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I52">
+        <v>156.88</v>
+      </c>
+      <c r="J52" t="s">
+        <v>134</v>
+      </c>
+      <c r="K52" t="s">
+        <v>135</v>
+      </c>
+      <c r="L52" s="2">
+        <v>43837.38618055556</v>
       </c>
       <c r="M52" t="s">
-        <v>130</v>
-      </c>
-      <c r="N52" s="2">
-        <v>43837.38618055556</v>
-      </c>
-      <c r="O52" t="s">
-        <v>118</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>156.88</v>
-      </c>
-      <c r="R52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N52" t="s">
+        <v>187</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3499,43 +3517,43 @@
         <v>194897199</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
-      </c>
-      <c r="L53" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I53">
+        <v>153.78</v>
+      </c>
+      <c r="J53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K53" t="s">
+        <v>135</v>
+      </c>
+      <c r="L53" s="2">
+        <v>43844.38059027777</v>
       </c>
       <c r="M53" t="s">
-        <v>130</v>
-      </c>
-      <c r="N53" s="2">
-        <v>43844.38059027777</v>
-      </c>
-      <c r="O53" t="s">
-        <v>118</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>153.78</v>
-      </c>
-      <c r="R53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N53" t="s">
+        <v>188</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3546,43 +3564,43 @@
         <v>194897199</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54">
+        <v>3000</v>
+      </c>
+      <c r="J54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K54" t="s">
+        <v>135</v>
+      </c>
+      <c r="L54" s="2">
+        <v>43848.30767361111</v>
+      </c>
+      <c r="M54" t="s">
         <v>125</v>
       </c>
-      <c r="L54" t="s">
-        <v>129</v>
-      </c>
-      <c r="M54" t="s">
-        <v>130</v>
-      </c>
-      <c r="N54" s="2">
-        <v>43848.30767361111</v>
-      </c>
-      <c r="O54" t="s">
-        <v>120</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>3000</v>
-      </c>
-      <c r="R54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="N54" t="s">
+        <v>184</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3593,43 +3611,43 @@
         <v>194897199</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
-      </c>
-      <c r="L55" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I55">
+        <v>155.92</v>
+      </c>
+      <c r="J55" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" t="s">
+        <v>135</v>
+      </c>
+      <c r="L55" s="2">
+        <v>43851.38725694444</v>
       </c>
       <c r="M55" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55" s="2">
-        <v>43851.38725694444</v>
-      </c>
-      <c r="O55" t="s">
-        <v>118</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>155.92</v>
-      </c>
-      <c r="R55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N55" t="s">
+        <v>189</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3640,43 +3658,43 @@
         <v>194897199</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H56" t="s">
-        <v>125</v>
-      </c>
-      <c r="L56" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I56">
+        <v>252.44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s">
+        <v>135</v>
+      </c>
+      <c r="L56" s="2">
+        <v>43865.37159722222</v>
       </c>
       <c r="M56" t="s">
-        <v>130</v>
-      </c>
-      <c r="N56" s="2">
-        <v>43865.37159722222</v>
-      </c>
-      <c r="O56" t="s">
-        <v>118</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>252.44</v>
-      </c>
-      <c r="R56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N56" t="s">
+        <v>190</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3687,43 +3705,43 @@
         <v>194897199</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J57" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57" t="s">
+        <v>136</v>
+      </c>
+      <c r="L57" s="2">
+        <v>43865.4728125</v>
       </c>
       <c r="M57" t="s">
-        <v>131</v>
-      </c>
-      <c r="N57" s="2">
-        <v>43865.4728125</v>
-      </c>
-      <c r="O57" t="s">
-        <v>118</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N57" t="s">
+        <v>191</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3734,43 +3752,43 @@
         <v>194897199</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H58" t="s">
-        <v>125</v>
-      </c>
-      <c r="L58" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I58">
+        <v>208.39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58" t="s">
+        <v>135</v>
+      </c>
+      <c r="L58" s="2">
+        <v>43868.37194444444</v>
       </c>
       <c r="M58" t="s">
-        <v>130</v>
-      </c>
-      <c r="N58" s="2">
-        <v>43868.37194444444</v>
-      </c>
-      <c r="O58" t="s">
-        <v>118</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>208.39</v>
-      </c>
-      <c r="R58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N58" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3781,43 +3799,43 @@
         <v>194897199</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J59" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59" t="s">
+        <v>136</v>
+      </c>
+      <c r="L59" s="2">
+        <v>43872.50354166667</v>
       </c>
       <c r="M59" t="s">
-        <v>131</v>
-      </c>
-      <c r="N59" s="2">
-        <v>43872.50354166667</v>
-      </c>
-      <c r="O59" t="s">
-        <v>118</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="R59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N59" t="s">
+        <v>193</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3828,43 +3846,43 @@
         <v>194897199</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
-      </c>
-      <c r="L60" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I60">
+        <v>191.38</v>
+      </c>
+      <c r="J60" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" t="s">
+        <v>135</v>
+      </c>
+      <c r="L60" s="2">
+        <v>43872.50354166667</v>
       </c>
       <c r="M60" t="s">
-        <v>130</v>
-      </c>
-      <c r="N60" s="2">
-        <v>43872.50354166667</v>
-      </c>
-      <c r="O60" t="s">
-        <v>118</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>191.38</v>
-      </c>
-      <c r="R60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N60" t="s">
+        <v>194</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3875,43 +3893,43 @@
         <v>194897199</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
-      </c>
-      <c r="L61" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I61">
+        <v>187.7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>134</v>
+      </c>
+      <c r="K61" t="s">
+        <v>135</v>
+      </c>
+      <c r="L61" s="2">
+        <v>43875.39950231482</v>
       </c>
       <c r="M61" t="s">
-        <v>130</v>
-      </c>
-      <c r="N61" s="2">
-        <v>43875.39950231482</v>
-      </c>
-      <c r="O61" t="s">
-        <v>118</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>187.7</v>
-      </c>
-      <c r="R61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N61" t="s">
+        <v>195</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3922,43 +3940,43 @@
         <v>194897199</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G62" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H62" t="s">
-        <v>125</v>
-      </c>
-      <c r="L62" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I62">
+        <v>149.46</v>
+      </c>
+      <c r="J62" t="s">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s">
+        <v>135</v>
+      </c>
+      <c r="L62" s="2">
+        <v>43879.39476851852</v>
       </c>
       <c r="M62" t="s">
-        <v>130</v>
-      </c>
-      <c r="N62" s="2">
-        <v>43879.39476851852</v>
-      </c>
-      <c r="O62" t="s">
-        <v>118</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>149.46</v>
-      </c>
-      <c r="R62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N62" t="s">
+        <v>196</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3969,43 +3987,43 @@
         <v>194897199</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H63" t="s">
-        <v>125</v>
-      </c>
-      <c r="L63" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I63">
+        <v>150.5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s">
+        <v>135</v>
+      </c>
+      <c r="L63" s="2">
+        <v>43886.49936342592</v>
       </c>
       <c r="M63" t="s">
-        <v>130</v>
-      </c>
-      <c r="N63" s="2">
-        <v>43886.49936342592</v>
-      </c>
-      <c r="O63" t="s">
-        <v>118</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>150.5</v>
-      </c>
-      <c r="R63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N63" t="s">
+        <v>197</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4016,40 +4034,40 @@
         <v>194897199</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
-      </c>
-      <c r="I64">
+        <v>131</v>
+      </c>
+      <c r="J64" t="s">
+        <v>134</v>
+      </c>
+      <c r="K64" t="s">
+        <v>136</v>
+      </c>
+      <c r="L64" s="2">
+        <v>43892.80605324074</v>
+      </c>
+      <c r="M64" t="s">
+        <v>125</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64">
         <v>100</v>
       </c>
-      <c r="L64" t="s">
-        <v>129</v>
-      </c>
-      <c r="M64" t="s">
-        <v>131</v>
-      </c>
-      <c r="N64" s="2">
-        <v>43892.80605324074</v>
-      </c>
-      <c r="O64" t="s">
-        <v>120</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4060,43 +4078,43 @@
         <v>194897199</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H65" t="s">
-        <v>125</v>
-      </c>
-      <c r="L65" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I65">
+        <v>182.06</v>
+      </c>
+      <c r="J65" t="s">
+        <v>134</v>
+      </c>
+      <c r="K65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L65" s="2">
+        <v>43893.37524305555</v>
       </c>
       <c r="M65" t="s">
-        <v>130</v>
-      </c>
-      <c r="N65" s="2">
-        <v>43893.37524305555</v>
-      </c>
-      <c r="O65" t="s">
-        <v>118</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>182.06</v>
-      </c>
-      <c r="R65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4107,43 +4125,43 @@
         <v>194897199</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H66" t="s">
-        <v>125</v>
-      </c>
-      <c r="L66" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I66">
+        <v>4833.44</v>
+      </c>
+      <c r="J66" t="s">
+        <v>134</v>
+      </c>
+      <c r="K66" t="s">
+        <v>135</v>
+      </c>
+      <c r="L66" s="2">
+        <v>43895.31143518518</v>
       </c>
       <c r="M66" t="s">
-        <v>130</v>
-      </c>
-      <c r="N66" s="2">
-        <v>43895.31143518518</v>
-      </c>
-      <c r="O66" t="s">
-        <v>121</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4833.44</v>
-      </c>
-      <c r="R66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>126</v>
+      </c>
+      <c r="N66" t="s">
+        <v>199</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4154,43 +4172,43 @@
         <v>194897199</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H67" t="s">
-        <v>125</v>
-      </c>
-      <c r="L67" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I67">
+        <v>193.46</v>
+      </c>
+      <c r="J67" t="s">
+        <v>134</v>
+      </c>
+      <c r="K67" t="s">
+        <v>135</v>
+      </c>
+      <c r="L67" s="2">
+        <v>43900.38061342593</v>
       </c>
       <c r="M67" t="s">
-        <v>130</v>
-      </c>
-      <c r="N67" s="2">
-        <v>43900.38061342593</v>
-      </c>
-      <c r="O67" t="s">
-        <v>118</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>193.46</v>
-      </c>
-      <c r="R67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N67" t="s">
+        <v>200</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4201,43 +4219,43 @@
         <v>194897199</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H68" t="s">
-        <v>125</v>
-      </c>
-      <c r="L68" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I68">
+        <v>118.58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>134</v>
+      </c>
+      <c r="K68" t="s">
+        <v>135</v>
+      </c>
+      <c r="L68" s="2">
+        <v>43902.58810185185</v>
       </c>
       <c r="M68" t="s">
-        <v>130</v>
-      </c>
-      <c r="N68" s="2">
-        <v>43902.58810185185</v>
-      </c>
-      <c r="O68" t="s">
-        <v>118</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>118.58</v>
-      </c>
-      <c r="R68" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N68" t="s">
+        <v>201</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4248,43 +4266,43 @@
         <v>194897199</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G69" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
-      </c>
-      <c r="L69" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I69">
+        <v>243.5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69" t="s">
+        <v>135</v>
+      </c>
+      <c r="L69" s="2">
+        <v>43906.59555555556</v>
       </c>
       <c r="M69" t="s">
-        <v>130</v>
-      </c>
-      <c r="N69" s="2">
-        <v>43906.59555555556</v>
-      </c>
-      <c r="O69" t="s">
-        <v>118</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>243.5</v>
-      </c>
-      <c r="R69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N69" t="s">
+        <v>202</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4295,43 +4313,43 @@
         <v>194897199</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
-      </c>
-      <c r="L70" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I70">
+        <v>94.02</v>
+      </c>
+      <c r="J70" t="s">
+        <v>134</v>
+      </c>
+      <c r="K70" t="s">
+        <v>135</v>
+      </c>
+      <c r="L70" s="2">
+        <v>43908.59388888889</v>
       </c>
       <c r="M70" t="s">
-        <v>130</v>
-      </c>
-      <c r="N70" s="2">
-        <v>43908.59388888889</v>
-      </c>
-      <c r="O70" t="s">
-        <v>118</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>94.02</v>
-      </c>
-      <c r="R70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N70" t="s">
+        <v>203</v>
+      </c>
+      <c r="O70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4342,43 +4360,43 @@
         <v>194897199</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H71" t="s">
-        <v>125</v>
-      </c>
-      <c r="L71" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I71">
+        <v>132.1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>134</v>
+      </c>
+      <c r="K71" t="s">
+        <v>135</v>
+      </c>
+      <c r="L71" s="2">
+        <v>43909.59851851852</v>
       </c>
       <c r="M71" t="s">
-        <v>130</v>
-      </c>
-      <c r="N71" s="2">
-        <v>43909.59851851852</v>
-      </c>
-      <c r="O71" t="s">
-        <v>118</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>132.1</v>
-      </c>
-      <c r="R71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N71" t="s">
+        <v>204</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4389,43 +4407,43 @@
         <v>194897199</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G72" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H72" t="s">
-        <v>125</v>
-      </c>
-      <c r="L72" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I72">
+        <v>408.54</v>
+      </c>
+      <c r="J72" t="s">
+        <v>134</v>
+      </c>
+      <c r="K72" t="s">
+        <v>135</v>
+      </c>
+      <c r="L72" s="2">
+        <v>43913.6047800926</v>
       </c>
       <c r="M72" t="s">
-        <v>130</v>
-      </c>
-      <c r="N72" s="2">
-        <v>43913.6047800926</v>
-      </c>
-      <c r="O72" t="s">
-        <v>118</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>408.54</v>
-      </c>
-      <c r="R72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4436,43 +4454,43 @@
         <v>194897199</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H73" t="s">
-        <v>125</v>
-      </c>
-      <c r="L73" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I73">
+        <v>197.64</v>
+      </c>
+      <c r="J73" t="s">
+        <v>134</v>
+      </c>
+      <c r="K73" t="s">
+        <v>135</v>
+      </c>
+      <c r="L73" s="2">
+        <v>43920.59271990741</v>
       </c>
       <c r="M73" t="s">
-        <v>130</v>
-      </c>
-      <c r="N73" s="2">
-        <v>43920.59271990741</v>
-      </c>
-      <c r="O73" t="s">
-        <v>118</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>197.64</v>
-      </c>
-      <c r="R73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4483,43 +4501,43 @@
         <v>194897199</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H74" t="s">
-        <v>125</v>
-      </c>
-      <c r="L74" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I74">
+        <v>205.48</v>
+      </c>
+      <c r="J74" t="s">
+        <v>134</v>
+      </c>
+      <c r="K74" t="s">
+        <v>135</v>
+      </c>
+      <c r="L74" s="2">
+        <v>43929.58109953703</v>
       </c>
       <c r="M74" t="s">
-        <v>130</v>
-      </c>
-      <c r="N74" s="2">
-        <v>43929.58109953703</v>
-      </c>
-      <c r="O74" t="s">
-        <v>118</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>205.48</v>
-      </c>
-      <c r="R74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N74" t="s">
+        <v>207</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4530,43 +4548,43 @@
         <v>194897199</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H75" t="s">
-        <v>125</v>
-      </c>
-      <c r="L75" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I75">
+        <v>214.1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>134</v>
+      </c>
+      <c r="K75" t="s">
+        <v>135</v>
+      </c>
+      <c r="L75" s="2">
+        <v>43934.60576388889</v>
       </c>
       <c r="M75" t="s">
-        <v>130</v>
-      </c>
-      <c r="N75" s="2">
-        <v>43934.60576388889</v>
-      </c>
-      <c r="O75" t="s">
-        <v>118</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>214.1</v>
-      </c>
-      <c r="R75" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N75" t="s">
+        <v>208</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4577,43 +4595,43 @@
         <v>194897199</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F76" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
-      </c>
-      <c r="L76" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I76">
+        <v>115.43</v>
+      </c>
+      <c r="J76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L76" s="2">
+        <v>43942.59151620371</v>
       </c>
       <c r="M76" t="s">
-        <v>130</v>
-      </c>
-      <c r="N76" s="2">
-        <v>43942.59151620371</v>
-      </c>
-      <c r="O76" t="s">
-        <v>118</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>115.43</v>
-      </c>
-      <c r="R76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N76" t="s">
+        <v>209</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4624,43 +4642,43 @@
         <v>194897199</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F77" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
-      </c>
-      <c r="L77" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I77">
+        <v>226.54</v>
+      </c>
+      <c r="J77" t="s">
+        <v>134</v>
+      </c>
+      <c r="K77" t="s">
+        <v>135</v>
+      </c>
+      <c r="L77" s="2">
+        <v>43957.54210648148</v>
       </c>
       <c r="M77" t="s">
-        <v>130</v>
-      </c>
-      <c r="N77" s="2">
-        <v>43957.54210648148</v>
-      </c>
-      <c r="O77" t="s">
-        <v>118</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>226.54</v>
-      </c>
-      <c r="R77" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N77" t="s">
+        <v>210</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4671,43 +4689,43 @@
         <v>194897199</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G78" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
-      </c>
-      <c r="L78" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I78">
+        <v>224.26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>134</v>
+      </c>
+      <c r="K78" t="s">
+        <v>135</v>
+      </c>
+      <c r="L78" s="2">
+        <v>43963.51813657407</v>
       </c>
       <c r="M78" t="s">
-        <v>130</v>
-      </c>
-      <c r="N78" s="2">
-        <v>43963.51813657407</v>
-      </c>
-      <c r="O78" t="s">
-        <v>118</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>224.26</v>
-      </c>
-      <c r="R78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N78" t="s">
+        <v>211</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4718,43 +4736,43 @@
         <v>194897199</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G79" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H79" t="s">
-        <v>125</v>
-      </c>
-      <c r="L79" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I79">
+        <v>226.5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>134</v>
+      </c>
+      <c r="K79" t="s">
+        <v>135</v>
+      </c>
+      <c r="L79" s="2">
+        <v>43970.57768518518</v>
       </c>
       <c r="M79" t="s">
-        <v>130</v>
-      </c>
-      <c r="N79" s="2">
-        <v>43970.57768518518</v>
-      </c>
-      <c r="O79" t="s">
-        <v>118</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>226.5</v>
-      </c>
-      <c r="R79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>123</v>
+      </c>
+      <c r="N79" t="s">
+        <v>212</v>
+      </c>
+      <c r="O79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4765,40 +4783,40 @@
         <v>194897199</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H80" t="s">
-        <v>125</v>
-      </c>
-      <c r="L80" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I80">
+        <v>226.5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>134</v>
+      </c>
+      <c r="K80" t="s">
+        <v>135</v>
+      </c>
+      <c r="L80" s="2">
+        <v>43977.58425925926</v>
       </c>
       <c r="M80" t="s">
-        <v>130</v>
-      </c>
-      <c r="N80" s="2">
-        <v>43977.58425925926</v>
-      </c>
-      <c r="O80" t="s">
-        <v>118</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>226.5</v>
-      </c>
-      <c r="R80" t="s">
-        <v>207</v>
+        <v>123</v>
+      </c>
+      <c r="N80" t="s">
+        <v>212</v>
+      </c>
+      <c r="O80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -4812,42 +4830,42 @@
         <v>194897199</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H81" t="s">
-        <v>127</v>
-      </c>
-      <c r="I81">
+        <v>132</v>
+      </c>
+      <c r="J81" t="s">
+        <v>134</v>
+      </c>
+      <c r="K81" t="s">
+        <v>137</v>
+      </c>
+      <c r="L81" s="2">
+        <v>43987.52528935186</v>
+      </c>
+      <c r="M81" t="s">
+        <v>126</v>
+      </c>
+      <c r="N81" t="s">
+        <v>213</v>
+      </c>
+      <c r="O81" t="b">
+        <v>0</v>
+      </c>
+      <c r="P81">
         <v>14.7</v>
       </c>
-      <c r="L81" t="s">
-        <v>129</v>
-      </c>
-      <c r="M81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N81" s="2">
-        <v>43987.52528935186</v>
-      </c>
-      <c r="O81" t="s">
-        <v>121</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>208</v>
-      </c>
-      <c r="S81">
+      <c r="Q81">
         <v>14.7</v>
       </c>
     </row>
@@ -4862,43 +4880,43 @@
         <v>194897199</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" t="s">
+        <v>133</v>
+      </c>
+      <c r="J82" t="s">
+        <v>134</v>
+      </c>
+      <c r="K82" t="s">
+        <v>138</v>
+      </c>
+      <c r="L82" s="2">
+        <v>43990.56037037037</v>
+      </c>
+      <c r="M82" t="s">
+        <v>139</v>
+      </c>
+      <c r="O82" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
         <v>122</v>
       </c>
-      <c r="G82" t="s">
-        <v>124</v>
-      </c>
-      <c r="H82" t="s">
-        <v>128</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>117</v>
-      </c>
-      <c r="K82" t="s">
-        <v>121</v>
-      </c>
-      <c r="L82" t="s">
-        <v>129</v>
-      </c>
-      <c r="M82" t="s">
-        <v>133</v>
-      </c>
-      <c r="N82" s="2">
-        <v>43990.56037037037</v>
-      </c>
-      <c r="O82" t="s">
-        <v>134</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
+      <c r="S82" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -4912,40 +4930,40 @@
         <v>194897199</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H83" t="s">
-        <v>126</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="L83" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J83" t="s">
+        <v>134</v>
+      </c>
+      <c r="K83" t="s">
+        <v>136</v>
+      </c>
+      <c r="L83" s="2">
+        <v>43998.58430555555</v>
       </c>
       <c r="M83" t="s">
-        <v>131</v>
-      </c>
-      <c r="N83" s="2">
-        <v>43998.58430555555</v>
-      </c>
-      <c r="O83" t="s">
-        <v>118</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="R83" t="s">
-        <v>209</v>
+        <v>123</v>
+      </c>
+      <c r="N83" t="s">
+        <v>214</v>
+      </c>
+      <c r="O83" t="b">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -4959,42 +4977,42 @@
         <v>194897199</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H84" t="s">
-        <v>127</v>
-      </c>
-      <c r="I84">
+        <v>132</v>
+      </c>
+      <c r="J84" t="s">
+        <v>134</v>
+      </c>
+      <c r="K84" t="s">
+        <v>137</v>
+      </c>
+      <c r="L84" s="2">
+        <v>44005.48332175926</v>
+      </c>
+      <c r="M84" t="s">
+        <v>123</v>
+      </c>
+      <c r="N84" t="s">
+        <v>215</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84">
         <v>1.11</v>
       </c>
-      <c r="L84" t="s">
-        <v>129</v>
-      </c>
-      <c r="M84" t="s">
-        <v>132</v>
-      </c>
-      <c r="N84" s="2">
-        <v>44005.48332175926</v>
-      </c>
-      <c r="O84" t="s">
-        <v>118</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="R84" t="s">
-        <v>210</v>
-      </c>
-      <c r="S84">
+      <c r="Q84">
         <v>1.11</v>
       </c>
     </row>
@@ -5009,40 +5027,40 @@
         <v>194897199</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H85" t="s">
-        <v>126</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J85" t="s">
+        <v>134</v>
+      </c>
+      <c r="K85" t="s">
+        <v>136</v>
+      </c>
+      <c r="L85" s="2">
+        <v>44005.53084490741</v>
       </c>
       <c r="M85" t="s">
-        <v>131</v>
-      </c>
-      <c r="N85" s="2">
-        <v>44005.53084490741</v>
-      </c>
-      <c r="O85" t="s">
-        <v>118</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R85" t="s">
-        <v>211</v>
+        <v>123</v>
+      </c>
+      <c r="N85" t="s">
+        <v>216</v>
+      </c>
+      <c r="O85" t="b">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -5056,40 +5074,40 @@
         <v>194897199</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H86" t="s">
-        <v>126</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="L86" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+      <c r="K86" t="s">
+        <v>136</v>
+      </c>
+      <c r="L86" s="2">
+        <v>44012.54643518518</v>
       </c>
       <c r="M86" t="s">
-        <v>131</v>
-      </c>
-      <c r="N86" s="2">
-        <v>44012.54643518518</v>
-      </c>
-      <c r="O86" t="s">
-        <v>118</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>212</v>
+        <v>123</v>
+      </c>
+      <c r="N86" t="s">
+        <v>217</v>
+      </c>
+      <c r="O86" t="b">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -5103,40 +5121,40 @@
         <v>194897199</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H87" t="s">
-        <v>126</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="L87" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J87" t="s">
+        <v>134</v>
+      </c>
+      <c r="K87" t="s">
+        <v>136</v>
+      </c>
+      <c r="L87" s="2">
+        <v>44026.53709490741</v>
       </c>
       <c r="M87" t="s">
-        <v>131</v>
-      </c>
-      <c r="N87" s="2">
-        <v>44026.53709490741</v>
-      </c>
-      <c r="O87" t="s">
-        <v>118</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="R87" t="s">
-        <v>213</v>
+        <v>123</v>
+      </c>
+      <c r="N87" t="s">
+        <v>218</v>
+      </c>
+      <c r="O87" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -5150,40 +5168,40 @@
         <v>194897199</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="L88" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+      <c r="K88" t="s">
+        <v>136</v>
+      </c>
+      <c r="L88" s="2">
+        <v>44033.54055555556</v>
       </c>
       <c r="M88" t="s">
-        <v>131</v>
-      </c>
-      <c r="N88" s="2">
-        <v>44033.54055555556</v>
-      </c>
-      <c r="O88" t="s">
-        <v>118</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>214</v>
+        <v>123</v>
+      </c>
+      <c r="N88" t="s">
+        <v>219</v>
+      </c>
+      <c r="O88" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -5197,40 +5215,40 @@
         <v>194897199</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G89" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H89" t="s">
-        <v>125</v>
-      </c>
-      <c r="L89" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I89">
+        <v>200</v>
+      </c>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+      <c r="K89" t="s">
+        <v>135</v>
+      </c>
+      <c r="L89" s="2">
+        <v>44033.54055555556</v>
       </c>
       <c r="M89" t="s">
-        <v>130</v>
-      </c>
-      <c r="N89" s="2">
-        <v>44033.54055555556</v>
-      </c>
-      <c r="O89" t="s">
-        <v>118</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>200</v>
-      </c>
-      <c r="R89" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="N89" t="s">
+        <v>143</v>
+      </c>
+      <c r="O89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -5244,37 +5262,37 @@
         <v>194897199</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H90" t="s">
+        <v>131</v>
+      </c>
+      <c r="J90" t="s">
+        <v>134</v>
+      </c>
+      <c r="K90" t="s">
+        <v>136</v>
+      </c>
+      <c r="L90" s="2">
+        <v>44039.44291666667</v>
+      </c>
+      <c r="M90" t="s">
         <v>126</v>
       </c>
-      <c r="I90">
+      <c r="O90" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90">
         <v>100</v>
-      </c>
-      <c r="L90" t="s">
-        <v>129</v>
-      </c>
-      <c r="M90" t="s">
-        <v>131</v>
-      </c>
-      <c r="N90" s="2">
-        <v>44039.44291666667</v>
-      </c>
-      <c r="O90" t="s">
-        <v>121</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -5288,43 +5306,43 @@
         <v>194897199</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E91" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J91" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K91" t="s">
-        <v>118</v>
-      </c>
-      <c r="L91" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="L91" s="2">
+        <v>44040.58869212963</v>
       </c>
       <c r="M91" t="s">
-        <v>133</v>
-      </c>
-      <c r="N91" s="2">
-        <v>44040.58869212963</v>
-      </c>
-      <c r="O91" t="s">
-        <v>135</v>
-      </c>
-      <c r="P91" t="b">
+        <v>140</v>
+      </c>
+      <c r="O91" t="b">
         <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>119</v>
+      </c>
+      <c r="S91" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -5338,40 +5356,40 @@
         <v>194897199</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E92" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
-      </c>
-      <c r="L92" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I92">
+        <v>200</v>
+      </c>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+      <c r="K92" t="s">
+        <v>135</v>
+      </c>
+      <c r="L92" s="2">
+        <v>44040.58869212963</v>
       </c>
       <c r="M92" t="s">
-        <v>130</v>
-      </c>
-      <c r="N92" s="2">
-        <v>44040.58869212963</v>
-      </c>
-      <c r="O92" t="s">
-        <v>118</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>200</v>
-      </c>
-      <c r="R92" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="N92" t="s">
+        <v>143</v>
+      </c>
+      <c r="O92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -5385,43 +5403,43 @@
         <v>194897199</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J93" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K93" t="s">
-        <v>118</v>
-      </c>
-      <c r="L93" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="L93" s="2">
+        <v>44047.52008101852</v>
       </c>
       <c r="M93" t="s">
-        <v>133</v>
-      </c>
-      <c r="N93" s="2">
-        <v>44047.52008101852</v>
-      </c>
-      <c r="O93" t="s">
-        <v>135</v>
-      </c>
-      <c r="P93" t="b">
+        <v>140</v>
+      </c>
+      <c r="O93" t="b">
         <v>1</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
+        <v>119</v>
+      </c>
+      <c r="S93" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -5435,40 +5453,40 @@
         <v>194897199</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H94" t="s">
-        <v>125</v>
-      </c>
-      <c r="L94" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I94">
+        <v>200</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+      <c r="K94" t="s">
+        <v>135</v>
+      </c>
+      <c r="L94" s="2">
+        <v>44047.52008101852</v>
       </c>
       <c r="M94" t="s">
-        <v>130</v>
-      </c>
-      <c r="N94" s="2">
-        <v>44047.52008101852</v>
-      </c>
-      <c r="O94" t="s">
-        <v>118</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>200</v>
-      </c>
-      <c r="R94" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="N94" t="s">
+        <v>143</v>
+      </c>
+      <c r="O94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -5482,43 +5500,43 @@
         <v>194897199</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J95" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K95" t="s">
-        <v>118</v>
-      </c>
-      <c r="L95" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="L95" s="2">
+        <v>44054.50988425926</v>
       </c>
       <c r="M95" t="s">
-        <v>133</v>
-      </c>
-      <c r="N95" s="2">
-        <v>44054.50988425926</v>
-      </c>
-      <c r="O95" t="s">
-        <v>135</v>
-      </c>
-      <c r="P95" t="b">
+        <v>140</v>
+      </c>
+      <c r="O95" t="b">
         <v>1</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
+        <v>119</v>
+      </c>
+      <c r="S95" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -5532,43 +5550,287 @@
         <v>194897199</v>
       </c>
       <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" t="s">
+        <v>133</v>
+      </c>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+      <c r="K96" t="s">
+        <v>138</v>
+      </c>
+      <c r="L96" s="2">
+        <v>44061.58847222223</v>
+      </c>
+      <c r="M96" t="s">
+        <v>140</v>
+      </c>
+      <c r="O96" t="b">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>119</v>
+      </c>
+      <c r="S96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>114</v>
       </c>
-      <c r="E96" t="s">
+      <c r="C97">
+        <v>194897199</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+      <c r="K97" t="s">
+        <v>138</v>
+      </c>
+      <c r="L97" s="2">
+        <v>44068.55689814815</v>
+      </c>
+      <c r="M97" t="s">
+        <v>140</v>
+      </c>
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
+        <v>119</v>
+      </c>
+      <c r="S97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98">
+        <v>194897199</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" t="s">
+        <v>127</v>
+      </c>
+      <c r="G98" t="s">
+        <v>129</v>
+      </c>
+      <c r="H98" t="s">
+        <v>133</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+      <c r="K98" t="s">
+        <v>138</v>
+      </c>
+      <c r="L98" s="2">
+        <v>44075.78414351852</v>
+      </c>
+      <c r="M98" t="s">
+        <v>140</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
+        <v>119</v>
+      </c>
+      <c r="S98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99">
+        <v>194897199</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>129</v>
+      </c>
+      <c r="H99" t="s">
+        <v>130</v>
+      </c>
+      <c r="I99">
+        <v>200</v>
+      </c>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+      <c r="K99" t="s">
+        <v>135</v>
+      </c>
+      <c r="L99" s="2">
+        <v>44082.56024305556</v>
+      </c>
+      <c r="M99" t="s">
+        <v>123</v>
+      </c>
+      <c r="N99" t="s">
+        <v>143</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>194897199</v>
+      </c>
+      <c r="D100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" t="s">
+        <v>129</v>
+      </c>
+      <c r="H100" t="s">
+        <v>132</v>
+      </c>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+      <c r="K100" t="s">
+        <v>137</v>
+      </c>
+      <c r="L100" s="2">
+        <v>44083.60465277778</v>
+      </c>
+      <c r="M100" t="s">
+        <v>123</v>
+      </c>
+      <c r="N100" t="s">
+        <v>220</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>16.5</v>
+      </c>
+      <c r="Q100">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>118</v>
       </c>
-      <c r="F96" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" t="s">
-        <v>124</v>
-      </c>
-      <c r="H96" t="s">
-        <v>128</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>114</v>
-      </c>
-      <c r="K96" t="s">
-        <v>118</v>
-      </c>
-      <c r="L96" t="s">
-        <v>129</v>
-      </c>
-      <c r="M96" t="s">
-        <v>133</v>
-      </c>
-      <c r="N96" s="2">
-        <v>44061.58847222223</v>
-      </c>
-      <c r="O96" t="s">
-        <v>135</v>
-      </c>
-      <c r="P96" t="b">
-        <v>1</v>
+      <c r="C101">
+        <v>194897199</v>
+      </c>
+      <c r="D101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" t="s">
+        <v>123</v>
+      </c>
+      <c r="F101" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" t="s">
+        <v>129</v>
+      </c>
+      <c r="H101" t="s">
+        <v>130</v>
+      </c>
+      <c r="I101">
+        <v>200</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+      <c r="K101" t="s">
+        <v>135</v>
+      </c>
+      <c r="L101" s="2">
+        <v>44089.5396412037</v>
+      </c>
+      <c r="M101" t="s">
+        <v>123</v>
+      </c>
+      <c r="N101" t="s">
+        <v>143</v>
+      </c>
+      <c r="O101" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
